--- a/backend/download/usulan.xlsx
+++ b/backend/download/usulan.xlsx
@@ -397,13 +397,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>NO</v>
+      </c>
+      <c r="B1" t="str">
+        <v>NAMA</v>
+      </c>
+      <c r="C1" t="str">
+        <v>NPWP</v>
+      </c>
+      <c r="D1" t="str">
+        <v>MASA</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KODE</v>
+      </c>
+      <c r="F1" t="str">
+        <v>KETERANGAN_KODE</v>
+      </c>
+      <c r="G1" t="str">
+        <v>KRITERIA</v>
+      </c>
+      <c r="H1" t="str">
+        <v>POTENSI_DSPP</v>
+      </c>
+      <c r="I1" t="str">
+        <v>JENIS_WP</v>
+      </c>
+      <c r="J1" t="str">
+        <v>NOMOR_USULAN</v>
+      </c>
+      <c r="K1" t="str">
+        <v>TANGGAL_USULAN</v>
+      </c>
+      <c r="L1" t="str">
+        <v>NOMOR_INSTRUKSI</v>
+      </c>
+      <c r="M1" t="str">
+        <v>TANGGAL_INSTRUKSI</v>
+      </c>
+      <c r="N1" t="str">
+        <v>NOMOR_NDSUPERVISOR</v>
+      </c>
+      <c r="O1" t="str">
+        <v>TANGGAL_NDSUPERVISOR</v>
+      </c>
+      <c r="P1" t="str">
+        <v>NOMOR_AUDITPLAN</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>TANGGAL_AUDITPLAN</v>
+      </c>
+      <c r="R1" t="str">
+        <v>SUPERVISOR</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>SUKARTI (usulan)</v>
+      </c>
+      <c r="C2" t="str">
+        <v>556672861712000</v>
+      </c>
+      <c r="D2" t="str">
+        <v>0118 - 1218</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0118 - 1218</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Pemeriksaan Rutin - DSPP</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Rutin</v>
+      </c>
+      <c r="H2">
+        <v>4002975</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Strategis</v>
+      </c>
+      <c r="J2" t="str">
+        <v>ND-19/WPJ.29/KP.0405/RIK.SIS/2022</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2021-12-07</v>
+      </c>
+      <c r="L2" t="str">
+        <v>ND-19/WPJ.29/KP.0405/RIK.SIS/2022</v>
+      </c>
+      <c r="M2" t="str">
+        <v>2021-12-07</v>
+      </c>
+      <c r="N2" t="str">
+        <v>ND-19/WPJ.29/KP.0405/RIK.SIS/2022</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2021-12-07</v>
+      </c>
+      <c r="P2" t="str">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>SOTO AYAM BU KARTI (usulan)</v>
+      </c>
+      <c r="C3" t="str">
+        <v>556672861712000</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0118 - 1218</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0118 - 1218</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Pemeriksaan Rutin - DSPP</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Rutin LB</v>
+      </c>
+      <c r="H3">
+        <v>4002975</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Strategis</v>
+      </c>
+      <c r="J3" t="str">
+        <v>ND-19/WPJ.29/KP.0405/RIK.SIS/2022</v>
+      </c>
+      <c r="K3" t="str">
+        <v>2021-12-07</v>
+      </c>
+      <c r="L3" t="str">
+        <v>ND-19/WPJ.29/KP.0405/RIK.SIS/2022</v>
+      </c>
+      <c r="M3" t="str">
+        <v>2021-12-07</v>
+      </c>
+      <c r="N3" t="str">
+        <v>ND-19/WPJ.29/KP.0405/RIK.SIS/2022</v>
+      </c>
+      <c r="O3" t="str">
+        <v>2021-12-07</v>
+      </c>
+      <c r="P3" t="str">
+        <v>ND-19/WPJ.29/KP.0405/RIK.SIS/2022</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>2021-12-07</v>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R3"/>
   </ignoredErrors>
 </worksheet>
 </file>